--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C1qtnf1-Avpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C1qtnf1-Avpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.038496666666667</v>
+        <v>3.402627333333333</v>
       </c>
       <c r="H2">
-        <v>6.11549</v>
+        <v>10.207882</v>
       </c>
       <c r="I2">
-        <v>0.1355591177149601</v>
+        <v>0.2841990200143236</v>
       </c>
       <c r="J2">
-        <v>0.1355591177149601</v>
+        <v>0.2841990200143237</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06455833333333334</v>
+        <v>0.006230666666666666</v>
       </c>
       <c r="N2">
-        <v>0.193675</v>
+        <v>0.018692</v>
       </c>
       <c r="O2">
-        <v>0.2411814810479362</v>
+        <v>0.4857083463257458</v>
       </c>
       <c r="P2">
-        <v>0.2411814810479362</v>
+        <v>0.4857083463257457</v>
       </c>
       <c r="Q2">
-        <v>0.1316019473055556</v>
+        <v>0.02120063670488889</v>
       </c>
       <c r="R2">
-        <v>1.18441752575</v>
+        <v>0.190805730344</v>
       </c>
       <c r="S2">
-        <v>0.0326943487800456</v>
+        <v>0.1380378360385547</v>
       </c>
       <c r="T2">
-        <v>0.0326943487800456</v>
+        <v>0.1380378360385547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.038496666666667</v>
+        <v>3.402627333333333</v>
       </c>
       <c r="H3">
-        <v>6.11549</v>
+        <v>10.207882</v>
       </c>
       <c r="I3">
-        <v>0.1355591177149601</v>
+        <v>0.2841990200143236</v>
       </c>
       <c r="J3">
-        <v>0.1355591177149601</v>
+        <v>0.2841990200143237</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,33 +623,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1519946666666667</v>
+        <v>0.006597333333333334</v>
       </c>
       <c r="N3">
-        <v>0.455984</v>
+        <v>0.019792</v>
       </c>
       <c r="O3">
-        <v>0.5678321747988235</v>
+        <v>0.5142916536742543</v>
       </c>
       <c r="P3">
-        <v>0.5678321747988234</v>
+        <v>0.5142916536742542</v>
       </c>
       <c r="Q3">
-        <v>0.3098406213511111</v>
+        <v>0.02244826672711111</v>
       </c>
       <c r="R3">
-        <v>2.78856559216</v>
+        <v>0.202034400544</v>
       </c>
       <c r="S3">
-        <v>0.0769748286258955</v>
+        <v>0.146161183975769</v>
       </c>
       <c r="T3">
-        <v>0.0769748286258955</v>
+        <v>0.146161183975769</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.038496666666667</v>
+        <v>6.723191</v>
       </c>
       <c r="H4">
-        <v>6.11549</v>
+        <v>20.169573</v>
       </c>
       <c r="I4">
-        <v>0.1355591177149601</v>
+        <v>0.5615438031814398</v>
       </c>
       <c r="J4">
-        <v>0.1355591177149601</v>
+        <v>0.5615438031814399</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.05112233333333333</v>
+        <v>0.006230666666666666</v>
       </c>
       <c r="N4">
-        <v>0.153367</v>
+        <v>0.018692</v>
       </c>
       <c r="O4">
-        <v>0.1909863441532404</v>
+        <v>0.4857083463257458</v>
       </c>
       <c r="P4">
-        <v>0.1909863441532404</v>
+        <v>0.4857083463257457</v>
       </c>
       <c r="Q4">
-        <v>0.1042127060922222</v>
+        <v>0.04188996205733333</v>
       </c>
       <c r="R4">
-        <v>0.9379143548300001</v>
+        <v>0.377009658516</v>
       </c>
       <c r="S4">
-        <v>0.02588994030901899</v>
+        <v>0.2727465120327272</v>
       </c>
       <c r="T4">
-        <v>0.02588994030901899</v>
+        <v>0.2727465120327272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,45 +735,45 @@
         <v>20.169573</v>
       </c>
       <c r="I5">
-        <v>0.4470891981783112</v>
+        <v>0.5615438031814398</v>
       </c>
       <c r="J5">
-        <v>0.4470891981783113</v>
+        <v>0.5615438031814399</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.06455833333333334</v>
+        <v>0.006597333333333334</v>
       </c>
       <c r="N5">
-        <v>0.193675</v>
+        <v>0.019792</v>
       </c>
       <c r="O5">
-        <v>0.2411814810479362</v>
+        <v>0.5142916536742543</v>
       </c>
       <c r="P5">
-        <v>0.2411814810479362</v>
+        <v>0.5142916536742542</v>
       </c>
       <c r="Q5">
-        <v>0.4340380056416667</v>
+        <v>0.04435513209066667</v>
       </c>
       <c r="R5">
-        <v>3.906342050775</v>
+        <v>0.399196188816</v>
       </c>
       <c r="S5">
-        <v>0.1078296349771794</v>
+        <v>0.2887972911487127</v>
       </c>
       <c r="T5">
-        <v>0.1078296349771794</v>
+        <v>0.2887972911487127</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>6.723191</v>
+        <v>0.019719</v>
       </c>
       <c r="H6">
-        <v>20.169573</v>
+        <v>0.059157</v>
       </c>
       <c r="I6">
-        <v>0.4470891981783112</v>
+        <v>0.001646998018490745</v>
       </c>
       <c r="J6">
-        <v>0.4470891981783113</v>
+        <v>0.001646998018490746</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1519946666666667</v>
+        <v>0.006230666666666666</v>
       </c>
       <c r="N6">
-        <v>0.455984</v>
+        <v>0.018692</v>
       </c>
       <c r="O6">
-        <v>0.5678321747988235</v>
+        <v>0.4857083463257458</v>
       </c>
       <c r="P6">
-        <v>0.5678321747988234</v>
+        <v>0.4857083463257457</v>
       </c>
       <c r="Q6">
-        <v>1.021889174981333</v>
+        <v>0.000122862516</v>
       </c>
       <c r="R6">
-        <v>9.197002574832</v>
+        <v>0.001105762644</v>
       </c>
       <c r="S6">
-        <v>0.2538716317306527</v>
+        <v>0.0007999606839629199</v>
       </c>
       <c r="T6">
-        <v>0.2538716317306526</v>
+        <v>0.00079996068396292</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,25 +844,25 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>6.723191</v>
+        <v>0.019719</v>
       </c>
       <c r="H7">
-        <v>20.169573</v>
+        <v>0.059157</v>
       </c>
       <c r="I7">
-        <v>0.4470891981783112</v>
+        <v>0.001646998018490745</v>
       </c>
       <c r="J7">
-        <v>0.4470891981783113</v>
+        <v>0.001646998018490746</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,33 +871,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.05112233333333333</v>
+        <v>0.006597333333333334</v>
       </c>
       <c r="N7">
-        <v>0.153367</v>
+        <v>0.019792</v>
       </c>
       <c r="O7">
-        <v>0.1909863441532404</v>
+        <v>0.5142916536742543</v>
       </c>
       <c r="P7">
-        <v>0.1909863441532404</v>
+        <v>0.5142916536742542</v>
       </c>
       <c r="Q7">
-        <v>0.3437052113656667</v>
+        <v>0.000130092816</v>
       </c>
       <c r="R7">
-        <v>3.093346902291</v>
+        <v>0.001170835344</v>
       </c>
       <c r="S7">
-        <v>0.08538793147047924</v>
+        <v>0.0008470373345278255</v>
       </c>
       <c r="T7">
-        <v>0.08538793147047924</v>
+        <v>0.0008470373345278255</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,22 +909,22 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9256160000000001</v>
+        <v>1.721285333333333</v>
       </c>
       <c r="H8">
-        <v>2.776848</v>
+        <v>5.163856</v>
       </c>
       <c r="I8">
-        <v>0.06155305051738316</v>
+        <v>0.1437676116059223</v>
       </c>
       <c r="J8">
-        <v>0.06155305051738316</v>
+        <v>0.1437676116059223</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,33 +933,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.06455833333333334</v>
+        <v>0.006230666666666666</v>
       </c>
       <c r="N8">
-        <v>0.193675</v>
+        <v>0.018692</v>
       </c>
       <c r="O8">
-        <v>0.2411814810479362</v>
+        <v>0.4857083463257458</v>
       </c>
       <c r="P8">
-        <v>0.2411814810479362</v>
+        <v>0.4857083463257457</v>
       </c>
       <c r="Q8">
-        <v>0.05975622626666668</v>
+        <v>0.01072475515022222</v>
       </c>
       <c r="R8">
-        <v>0.5378060364000001</v>
+        <v>0.09652279635200001</v>
       </c>
       <c r="S8">
-        <v>0.01484545588680091</v>
+        <v>0.06982912888831462</v>
       </c>
       <c r="T8">
-        <v>0.0148454558868009</v>
+        <v>0.06982912888831462</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,25 +968,25 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9256160000000001</v>
+        <v>1.721285333333333</v>
       </c>
       <c r="H9">
-        <v>2.776848</v>
+        <v>5.163856</v>
       </c>
       <c r="I9">
-        <v>0.06155305051738316</v>
+        <v>0.1437676116059223</v>
       </c>
       <c r="J9">
-        <v>0.06155305051738316</v>
+        <v>0.1437676116059223</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,33 +995,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1519946666666667</v>
+        <v>0.006597333333333334</v>
       </c>
       <c r="N9">
-        <v>0.455984</v>
+        <v>0.019792</v>
       </c>
       <c r="O9">
-        <v>0.5678321747988235</v>
+        <v>0.5142916536742543</v>
       </c>
       <c r="P9">
-        <v>0.5678321747988234</v>
+        <v>0.5142916536742542</v>
       </c>
       <c r="Q9">
-        <v>0.1406886953813334</v>
+        <v>0.01135589310577778</v>
       </c>
       <c r="R9">
-        <v>1.266198258432</v>
+        <v>0.102203037952</v>
       </c>
       <c r="S9">
-        <v>0.03495180254078753</v>
+        <v>0.0739384827176077</v>
       </c>
       <c r="T9">
-        <v>0.03495180254078752</v>
+        <v>0.0739384827176077</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.06758599999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.202758</v>
+      </c>
+      <c r="I10">
+        <v>0.005645012834206374</v>
+      </c>
+      <c r="J10">
+        <v>0.005645012834206375</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G10">
-        <v>0.9256160000000001</v>
-      </c>
-      <c r="H10">
-        <v>2.776848</v>
-      </c>
-      <c r="I10">
-        <v>0.06155305051738316</v>
-      </c>
-      <c r="J10">
-        <v>0.06155305051738316</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M10">
-        <v>0.05112233333333333</v>
+        <v>0.006230666666666666</v>
       </c>
       <c r="N10">
-        <v>0.153367</v>
+        <v>0.018692</v>
       </c>
       <c r="O10">
-        <v>0.1909863441532404</v>
+        <v>0.4857083463257458</v>
       </c>
       <c r="P10">
-        <v>0.1909863441532404</v>
+        <v>0.4857083463257457</v>
       </c>
       <c r="Q10">
-        <v>0.04731964969066667</v>
+        <v>0.0004211058373333333</v>
       </c>
       <c r="R10">
-        <v>0.4258768472160001</v>
+        <v>0.003789952536</v>
       </c>
       <c r="S10">
-        <v>0.01175579208979473</v>
+        <v>0.002741829848689989</v>
       </c>
       <c r="T10">
-        <v>0.01175579208979473</v>
+        <v>0.00274182984868999</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>3.094181666666667</v>
+        <v>0.06758599999999999</v>
       </c>
       <c r="H11">
-        <v>9.282545000000001</v>
+        <v>0.202758</v>
       </c>
       <c r="I11">
-        <v>0.2057616986291228</v>
+        <v>0.005645012834206374</v>
       </c>
       <c r="J11">
-        <v>0.2057616986291228</v>
+        <v>0.005645012834206375</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.06455833333333334</v>
+        <v>0.006597333333333334</v>
       </c>
       <c r="N11">
-        <v>0.193675</v>
+        <v>0.019792</v>
       </c>
       <c r="O11">
-        <v>0.2411814810479362</v>
+        <v>0.5142916536742543</v>
       </c>
       <c r="P11">
-        <v>0.2411814810479362</v>
+        <v>0.5142916536742542</v>
       </c>
       <c r="Q11">
-        <v>0.1997552114305556</v>
+        <v>0.0004458873706666666</v>
       </c>
       <c r="R11">
-        <v>1.797796902875</v>
+        <v>0.004012986336</v>
       </c>
       <c r="S11">
-        <v>0.04962591121831094</v>
+        <v>0.002903182985516385</v>
       </c>
       <c r="T11">
-        <v>0.04962591121831095</v>
+        <v>0.002903182985516385</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>3.094181666666667</v>
+        <v>0.03828333333333333</v>
       </c>
       <c r="H12">
-        <v>9.282545000000001</v>
+        <v>0.11485</v>
       </c>
       <c r="I12">
-        <v>0.2057616986291228</v>
+        <v>0.003197554345616953</v>
       </c>
       <c r="J12">
-        <v>0.2057616986291228</v>
+        <v>0.003197554345616953</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1519946666666667</v>
+        <v>0.006230666666666666</v>
       </c>
       <c r="N12">
-        <v>0.455984</v>
+        <v>0.018692</v>
       </c>
       <c r="O12">
-        <v>0.5678321747988235</v>
+        <v>0.4857083463257458</v>
       </c>
       <c r="P12">
-        <v>0.5678321747988234</v>
+        <v>0.4857083463257457</v>
       </c>
       <c r="Q12">
-        <v>0.4702991110311112</v>
+        <v>0.0002385306888888889</v>
       </c>
       <c r="R12">
-        <v>4.23269199928</v>
+        <v>0.0021467762</v>
       </c>
       <c r="S12">
-        <v>0.1168381128228749</v>
+        <v>0.001553078833496312</v>
       </c>
       <c r="T12">
-        <v>0.1168381128228749</v>
+        <v>0.001553078833496312</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,25 +1216,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>3.094181666666667</v>
+        <v>0.03828333333333333</v>
       </c>
       <c r="H13">
-        <v>9.282545000000001</v>
+        <v>0.11485</v>
       </c>
       <c r="I13">
-        <v>0.2057616986291228</v>
+        <v>0.003197554345616953</v>
       </c>
       <c r="J13">
-        <v>0.2057616986291228</v>
+        <v>0.003197554345616953</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,400 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.05112233333333333</v>
+        <v>0.006597333333333334</v>
       </c>
       <c r="N13">
-        <v>0.153367</v>
+        <v>0.019792</v>
       </c>
       <c r="O13">
-        <v>0.1909863441532404</v>
+        <v>0.5142916536742543</v>
       </c>
       <c r="P13">
-        <v>0.1909863441532404</v>
+        <v>0.5142916536742542</v>
       </c>
       <c r="Q13">
-        <v>0.1581817865572222</v>
+        <v>0.0002525679111111111</v>
       </c>
       <c r="R13">
-        <v>1.423636079015</v>
+        <v>0.0022731112</v>
       </c>
       <c r="S13">
-        <v>0.03929767458793697</v>
+        <v>0.001644475512120641</v>
       </c>
       <c r="T13">
-        <v>0.03929767458793698</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.1897486666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.569246</v>
-      </c>
-      <c r="I14">
-        <v>0.01261820157056428</v>
-      </c>
-      <c r="J14">
-        <v>0.01261820157056428</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.06455833333333334</v>
-      </c>
-      <c r="N14">
-        <v>0.193675</v>
-      </c>
-      <c r="O14">
-        <v>0.2411814810479362</v>
-      </c>
-      <c r="P14">
-        <v>0.2411814810479362</v>
-      </c>
-      <c r="Q14">
-        <v>0.01224985767222223</v>
-      </c>
-      <c r="R14">
-        <v>0.11024871905</v>
-      </c>
-      <c r="S14">
-        <v>0.003043276542950088</v>
-      </c>
-      <c r="T14">
-        <v>0.003043276542950089</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.1897486666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.569246</v>
-      </c>
-      <c r="I15">
-        <v>0.01261820157056428</v>
-      </c>
-      <c r="J15">
-        <v>0.01261820157056428</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.1519946666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.455984</v>
-      </c>
-      <c r="O15">
-        <v>0.5678321747988235</v>
-      </c>
-      <c r="P15">
-        <v>0.5678321747988234</v>
-      </c>
-      <c r="Q15">
-        <v>0.02884078534044445</v>
-      </c>
-      <c r="R15">
-        <v>0.259567068064</v>
-      </c>
-      <c r="S15">
-        <v>0.007165020839863447</v>
-      </c>
-      <c r="T15">
-        <v>0.007165020839863446</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.1897486666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.569246</v>
-      </c>
-      <c r="I16">
-        <v>0.01261820157056428</v>
-      </c>
-      <c r="J16">
-        <v>0.01261820157056428</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.05112233333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.153367</v>
-      </c>
-      <c r="O16">
-        <v>0.1909863441532404</v>
-      </c>
-      <c r="P16">
-        <v>0.1909863441532404</v>
-      </c>
-      <c r="Q16">
-        <v>0.009700394586888889</v>
-      </c>
-      <c r="R16">
-        <v>0.087303551282</v>
-      </c>
-      <c r="S16">
-        <v>0.002409904187750748</v>
-      </c>
-      <c r="T16">
-        <v>0.002409904187750749</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2.066461</v>
-      </c>
-      <c r="H17">
-        <v>6.199383000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.1374187333896585</v>
-      </c>
-      <c r="J17">
-        <v>0.1374187333896585</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.06455833333333334</v>
-      </c>
-      <c r="N17">
-        <v>0.193675</v>
-      </c>
-      <c r="O17">
-        <v>0.2411814810479362</v>
-      </c>
-      <c r="P17">
-        <v>0.2411814810479362</v>
-      </c>
-      <c r="Q17">
-        <v>0.1334072780583334</v>
-      </c>
-      <c r="R17">
-        <v>1.200665502525</v>
-      </c>
-      <c r="S17">
-        <v>0.03314285364264931</v>
-      </c>
-      <c r="T17">
-        <v>0.03314285364264932</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>2.066461</v>
-      </c>
-      <c r="H18">
-        <v>6.199383000000001</v>
-      </c>
-      <c r="I18">
-        <v>0.1374187333896585</v>
-      </c>
-      <c r="J18">
-        <v>0.1374187333896585</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.1519946666666667</v>
-      </c>
-      <c r="N18">
-        <v>0.455984</v>
-      </c>
-      <c r="O18">
-        <v>0.5678321747988235</v>
-      </c>
-      <c r="P18">
-        <v>0.5678321747988234</v>
-      </c>
-      <c r="Q18">
-        <v>0.3140910508746667</v>
-      </c>
-      <c r="R18">
-        <v>2.826819457872</v>
-      </c>
-      <c r="S18">
-        <v>0.07803077823874947</v>
-      </c>
-      <c r="T18">
-        <v>0.07803077823874947</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>2.066461</v>
-      </c>
-      <c r="H19">
-        <v>6.199383000000001</v>
-      </c>
-      <c r="I19">
-        <v>0.1374187333896585</v>
-      </c>
-      <c r="J19">
-        <v>0.1374187333896585</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.05112233333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.153367</v>
-      </c>
-      <c r="O19">
-        <v>0.1909863441532404</v>
-      </c>
-      <c r="P19">
-        <v>0.1909863441532404</v>
-      </c>
-      <c r="Q19">
-        <v>0.1056423080623334</v>
-      </c>
-      <c r="R19">
-        <v>0.9507807725610001</v>
-      </c>
-      <c r="S19">
-        <v>0.02624510150825969</v>
-      </c>
-      <c r="T19">
-        <v>0.0262451015082597</v>
+        <v>0.001644475512120641</v>
       </c>
     </row>
   </sheetData>
